--- a/data/trans_dic/P31_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>68,73%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>62,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>70,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>67,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>74,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>72,26%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,96; 80,14</t>
+          <t>56,19; 89,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,13; 73,83</t>
+          <t>43,2; 78,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 78,76</t>
+          <t>37,96; 73,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,96; 86,37</t>
+          <t>21,73; 57,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,99; 93,75</t>
+          <t>58,7; 84,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,47; 86,58</t>
+          <t>66,38; 91,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,54; 80,82</t>
+          <t>55,42; 82,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,79; 81,06</t>
+          <t>51,59; 82,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,22; 80,07</t>
+          <t>62,93; 83,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61,66; 82,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52,21; 74,73</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41,6; 65,73</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,51%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>81,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,24%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>76,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>89,02%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80,41%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,67; 83,4</t>
+          <t>37,71; 90,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,96; 89,84</t>
+          <t>77,63; 96,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,44; 88,55</t>
+          <t>70,52; 93,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,47; 89,61</t>
+          <t>68,12; 93,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,32; 93,81</t>
+          <t>69,69; 90,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,98; 89,78</t>
+          <t>74,55; 94,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,21; 84,04</t>
+          <t>62,7; 86,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,74; 90,28</t>
+          <t>65,34; 89,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,02; 87,23</t>
+          <t>59,13; 86,28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81,21; 94,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>71,86; 88,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>69,21; 88,92</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>74,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>84,14%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>85,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>85,29%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78,71%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,76; 90,14</t>
+          <t>61,97; 84,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,83; 94,01</t>
+          <t>71,25; 91,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,89; 92,9</t>
+          <t>70,17; 91,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,24; 94,22</t>
+          <t>61,02; 84,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,16; 94,67</t>
+          <t>84,28; 95,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>80,31; 91,78</t>
+          <t>76,78; 92,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,78; 91,16</t>
+          <t>79,85; 92,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,58; 93,11</t>
+          <t>73,38; 89,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,48; 91,19</t>
+          <t>77,91; 89,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78,71; 90,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>78,9; 90,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>71,62; 84,91</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>82,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>91,46%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78,19%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,17; 84,58</t>
+          <t>61,05; 80,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,62; 93,8</t>
+          <t>81,88; 95,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,16; 87,69</t>
+          <t>75,16; 91,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,62; 90,78</t>
+          <t>60,31; 80,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,77; 96,91</t>
+          <t>85,38; 96,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,49; 94,99</t>
+          <t>86,78; 96,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,17; 86,96</t>
+          <t>86,79; 97,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,62; 94,62</t>
+          <t>75,41; 91,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,91; 90,64</t>
+          <t>76,45; 87,99</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>86,89; 94,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83,76; 93,48</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>71,32; 83,78</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>76,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,52%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,76%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>84,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>79,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>82,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>78,68%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,91; 89,23</t>
+          <t>58,03; 86,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,34; 84,45</t>
+          <t>52,19; 82,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,48; 88,81</t>
+          <t>58,46; 85,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,42; 98,17</t>
+          <t>52,74; 78,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,38; 97,07</t>
+          <t>87,67; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 97,5</t>
+          <t>81,28; 97,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,49; 92,75</t>
+          <t>82,16; 97,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,77; 89,38</t>
+          <t>83,19; 98,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,44; 91,61</t>
+          <t>70,35; 90,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65,68; 86,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>71,21; 88,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>67,77; 85,52</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>93,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>90,31%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>91,37%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86,48%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,02; 98,78</t>
+          <t>82,25; 97,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,9; 92,63</t>
+          <t>74,43; 95,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,06; 98,78</t>
+          <t>80,98; 97,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,59; 97,91</t>
+          <t>74,6; 95,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,77; 98,24</t>
+          <t>82,56; 97,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,77; 97,76</t>
+          <t>82,45; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,02; 97,26</t>
+          <t>78,69; 96,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,31; 95,3</t>
+          <t>69,48; 94,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,04; 97,2</t>
+          <t>85,98; 97,6</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>82,89; 95,25</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83,39; 96,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>76,82; 92,88</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>82,44%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>85,24%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>82,31%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,66; 83,7</t>
+          <t>67,04; 81,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,34; 84,86</t>
+          <t>75,87; 85,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,0; 84,66</t>
+          <t>73,7; 83,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85,13; 90,06</t>
+          <t>65,51; 77,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,92; 93,42</t>
+          <t>84,81; 91,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,66; 90,62</t>
+          <t>84,73; 91,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,28; 86,2</t>
+          <t>81,17; 88,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,0; 88,4</t>
+          <t>77,81; 86,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>82,25; 87,05</t>
+          <t>78,09; 85,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>82,07; 88,07</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>78,86; 85,33</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73,34; 80,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>81951</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66013</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72414</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52913</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97444</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>91300</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>85528</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96937</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>179395</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>157314</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>157942</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>149850</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60136; 95313</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>45674; 82792</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48420; 94040</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28974; 76758</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78657; 113869</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>74344; 102951</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66837; 99701</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73665; 117749</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>151685; 200054</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>134231; 180463</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>129566; 185452</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>114874; 181499</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>120040</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>129661</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>130002</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>186052</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>134556</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>110786</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>95651</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>111043</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>254595</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>240447</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>225653</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>297095</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>63639; 151879</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111309; 138824</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>108797; 144777</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>155105; 213430</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>115066; 150085</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>94457; 120200</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>79197; 109090</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>92648; 126441</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>197404; 288041</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>219339; 255227</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>201632; 248136</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>255727; 328543</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>119952</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>109686</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>113107</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>130030</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>236636</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>177053</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>173573</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>180280</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>356589</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>286740</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>286681</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>310309</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>100422; 137546</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93778; 119923</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>96584; 125728</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106883; 148188</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>220603; 249380</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>156213; 188726</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>158467; 184423</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>160746; 195559</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>330198; 380228</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>263715; 303053</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>265202; 303667</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>282341; 334751</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>133038</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>141179</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>132634</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>142765</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>201855</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167837</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160730</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>171106</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>334893</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>309015</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>293363</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>313871</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>113981; 150251</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>128710; 150575</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>117404; 143101</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>120350; 161445</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>186448; 210405</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>156808; 175261</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>149681; 167525</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>152219; 183751</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>309686; 356432</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>293575; 320780</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>275285; 307253</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>286294; 336312</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117676</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>92435</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>92970</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>103628</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>109175</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78223</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>82005</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>118161</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>226850</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>170657</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>174975</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>221788</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>89771; 134442</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67874; 106911</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>72014; 105340</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>81563; 121477</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99500; 113496</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>69438; 83567</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72893; 86787</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>105856; 124717</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>188667; 243462</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>141531; 187056</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>150898; 187916</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>191029; 241083</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>101267</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>72489</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>83798</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>118691</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>128411</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>87501</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>99623</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>172700</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>229677</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>183421</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>291391</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>89909; 106751</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>61635; 78760</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>72993; 88285</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>100249; 128826</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>113600; 134738</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>77794; 94352</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>87042; 106715</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>140741; 190713</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>212308; 240981</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>146838; 168747</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>167400; 192858</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>258833; 312956</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>527.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>673924</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>611463</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>624925</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>734077</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>908075</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>712701</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>697110</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>850228</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1581999</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1324163</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1322036</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1584306</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>595699; 720879</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>569585; 645598</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>581491; 661583</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>671333; 791217</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>873827; 938200</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>680052; 737709</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>663263; 723070</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>805602; 894163</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1498519; 1643345</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1274919; 1368064</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1266603; 1370616</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1510807; 1659730</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>